--- a/templates/jnt-waybill.xlsx
+++ b/templates/jnt-waybill.xlsx
@@ -343,215 +343,215 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,88 +847,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="26" t="s">
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="18" t="s">
+      <c r="H1" s="66"/>
+      <c r="I1" s="59" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="19"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="19"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="41" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="19"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="19"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="37"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="19"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
@@ -939,7 +939,7 @@
       <c r="F7" s="48"/>
       <c r="G7" s="48"/>
       <c r="H7" s="49"/>
-      <c r="I7" s="19"/>
+      <c r="I7" s="37"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="50"/>
@@ -950,7 +950,7 @@
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
       <c r="H8" s="52"/>
-      <c r="I8" s="19"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -960,195 +960,195 @@
       <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="66"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="19"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="37"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="19"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="31" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="19"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="19"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="37"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="37"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="19"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="37"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="19"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="37"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="41" t="s">
+      <c r="D16" s="75"/>
+      <c r="E16" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="19" t="s">
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="37"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="19"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="37"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="19"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="37"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="15" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="19"/>
+      <c r="I20" s="37"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="19"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="37"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="54"/>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="19"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="37"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
@@ -1160,8 +1160,8 @@
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
       <c r="G23" s="49"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="19"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="37"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="47"/>
@@ -1171,8 +1171,8 @@
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
       <c r="G24" s="49"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="19"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="37"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="47"/>
@@ -1182,8 +1182,8 @@
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
       <c r="G25" s="49"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="19"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="37"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="50"/>
@@ -1193,47 +1193,47 @@
       <c r="E26" s="51"/>
       <c r="F26" s="51"/>
       <c r="G26" s="52"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="19"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="37"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="54"/>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="19"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="37"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="19"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="37"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="19" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="37" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1241,195 +1241,200 @@
       <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="39" t="s">
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="19"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="37"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="10">
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="34">
         <v>1</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="34">
         <v>2</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="34">
         <v>3</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="19"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="37"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="19"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="37"/>
     </row>
     <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="19"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="37"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="63" t="s">
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="19"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="37"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="19"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="37"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="19"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="37"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="19"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="37"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="19"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="19"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="37"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="19"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="37"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="19"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="37"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="64" t="s">
+      <c r="A42" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65" t="s">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
       <c r="I42" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:D12"/>
-    <mergeCell ref="A17:H19"/>
-    <mergeCell ref="A20:G21"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A13:B15"/>
-    <mergeCell ref="A35:D41"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C1:F3"/>
+    <mergeCell ref="G1:H3"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C13:F15"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A6:H8"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="I16:I28"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="F9:H9"/>
@@ -1446,27 +1451,22 @@
     <mergeCell ref="H20:H33"/>
     <mergeCell ref="I1:I15"/>
     <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:F3"/>
-    <mergeCell ref="G1:H3"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C13:F15"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A6:H8"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:D12"/>
+    <mergeCell ref="A17:H19"/>
+    <mergeCell ref="A20:G21"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A13:B15"/>
+    <mergeCell ref="A35:D41"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="G31:G33"/>
     <mergeCell ref="F31:F33"/>
     <mergeCell ref="E31:E33"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
